--- a/biology/Histoire de la zoologie et de la botanique/Henry_Crosnier_de_Varigny/Henry_Crosnier_de_Varigny.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henry_Crosnier_de_Varigny/Henry_Crosnier_de_Varigny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Crosnier de Varigny (Honolulu, 13 novembre 1855 - Paris, 27 septembre 1934) est un naturaliste et journaliste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils du consul de France Charles Crosnier de Varigny, il se fait connaître par ses traductions scientifiques et ses travaux de vulgarisation. Rédacteur au Temps et au Journal des Débats, en 1893, il est chargé d'étudier les parcs zoologiques américains et de visiter des institutions à l'occasion de l'Exposition universelle de Chicago.
 Il part ainsi de Boulogne le 23 août 1893 et arrive à New York le 2 septembre. Il y reste trois jours puis prend le train pour Chicago. Il passe aux chutes du Niagara puis visite l'Exposition universelle où il admire les trottoirs roulants et les dernières inventions comme le télautographe ou le photophone et l'université privée qui a été fondée en 1889.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Recherches expérimentales sur l'excitabilité électrique des circonvolutions cérébrales et sur la période d'excitation latente du cerveau, 1884
 Recherches expérimentales sur la contraction musculaire chez les invertébrés, 1886
@@ -561,9 +577,43 @@
 La nature et la vie, 1905
 Mines et tranchées, 1915
 Explosions et explosifs, 1916
-La mort et le sentiment, 1927
-Traductions
-Les fonctions du cerveau de David Ferrier, 1878
+La mort et le sentiment, 1927</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Henry_Crosnier_de_Varigny</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henry_Crosnier_de_Varigny</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les fonctions du cerveau de David Ferrier, 1878
 De la localisation des maladies cérébrales de David Ferrier, 1879
 L'évolution mentale chez les animaux de George John Romanes, 1884
 L'âme de l'enfant. Observations sur le développement psychique des premières années, de Wilhelm Thierry Preyer, 1887
